--- a/DATA_goal/Junction_Flooding_406.xlsx
+++ b/DATA_goal/Junction_Flooding_406.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_406.xlsx
+++ b/DATA_goal/Junction_Flooding_406.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.75694444445</v>
+        <v>45087.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.76388888889</v>
+        <v>45087.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.687</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.23</v>
+        <v>5.053</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.519</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.96</v>
+        <v>16.544</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.5</v>
+        <v>12.856</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.52</v>
+        <v>6.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.87</v>
+        <v>25.796</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>3.86</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.29</v>
+        <v>5.522</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.592</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.95</v>
+        <v>6.799</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.28</v>
+        <v>1.936</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1</v>
+        <v>8.363</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.07</v>
+        <v>5.424</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.463</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.822</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.28</v>
+        <v>84.25700000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.63</v>
+        <v>16.981</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.45</v>
+        <v>10.986</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.59</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.437</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.88</v>
+        <v>12.301</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>4.584</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.93</v>
+        <v>5.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.788</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.09</v>
+        <v>23.835</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>2.939</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>6.943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.77083333334</v>
+        <v>45087.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.3</v>
+        <v>22.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.78</v>
+        <v>16.496</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.528</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.08</v>
+        <v>49.043</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.76</v>
+        <v>39.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.95</v>
+        <v>17.77</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.53</v>
+        <v>65.62</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>27.341</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>12.057</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>17.817</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>19.671</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.42</v>
+        <v>20.697</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>5.675</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.4</v>
+        <v>25.073</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>14.977</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.093</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.37</v>
+        <v>1.009</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.82</v>
+        <v>261.637</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.18</v>
+        <v>49.345</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.74</v>
+        <v>33.059</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.86</v>
+        <v>17.308</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.54</v>
+        <v>2.75</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.55</v>
+        <v>32.379</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>12.836</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.16</v>
+        <v>15.081</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.23</v>
+        <v>20.596</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.32</v>
+        <v>59.537</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>9.132999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.77777777778</v>
+        <v>45087.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.32</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.87</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.11</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.96</v>
+        <v>7.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>4.8</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="Q5" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>9.82</v>
+        <v>44.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.16</v>
+        <v>9.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.83</v>
+        <v>6.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.22</v>
+        <v>8.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>2.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.11</v>
+        <v>3.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.27</v>
+        <v>3.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.5</v>
+        <v>18.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>1.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_406.xlsx
+++ b/DATA_goal/Junction_Flooding_406.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,34 +443,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45087.50694444445</v>
+        <v>44782.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.776</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.78</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.002</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.831</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.945</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.989</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>43.56</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.524</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.901999999999999</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.298</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.882</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.457</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.465</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.911</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.348</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.001</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.404</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.232</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.374</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.641</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.84</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.287</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.826</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.128</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.227</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.342</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.33</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.137</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.411</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.318</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.832</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.978</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.052</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45087.51388888889</v>
+        <v>44782.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.687</v>
+        <v>0.781</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.053</v>
+        <v>0.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.519</v>
+        <v>1.238</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.544</v>
+        <v>1.962</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.856</v>
+        <v>0.502</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.519</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.796</v>
+        <v>7.867</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.308</v>
+        <v>1.163</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.86</v>
+        <v>0.226</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.522</v>
+        <v>0.289</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.592</v>
+        <v>0.659</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.799</v>
+        <v>0.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.936</v>
+        <v>0.282</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>0.752</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.363</v>
+        <v>0.996</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.424</v>
+        <v>1.071</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.463</v>
+        <v>1.249</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.822</v>
+        <v>0.553</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.25700000000001</v>
+        <v>4.276</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.981</v>
+        <v>2.634</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>0.694</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.986</v>
+        <v>1.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.59</v>
+        <v>0.538</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.437</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.301</v>
+        <v>3.878</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>0.613</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.584</v>
+        <v>0.799</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.358</v>
+        <v>0.929</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.788</v>
+        <v>0.701</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.835</v>
+        <v>8.092000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.939</v>
+        <v>0.151</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.943</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45087.52083333334</v>
+        <v>44782.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.58</v>
+        <v>1.3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.496</v>
+        <v>0.779</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.528</v>
+        <v>0.799</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.043</v>
+        <v>3.081</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.94</v>
+        <v>1.764</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.77</v>
+        <v>0.955</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.62</v>
+        <v>5.533</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.341</v>
+        <v>1.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.057</v>
+        <v>0.446</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.817</v>
+        <v>0.805</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.671</v>
+        <v>1.169</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.697</v>
+        <v>1.421</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.675</v>
+        <v>0.359</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.67</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.073</v>
+        <v>1.398</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.977</v>
+        <v>1.277</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.093</v>
+        <v>0.836</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.009</v>
+        <v>0.368</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>261.637</v>
+        <v>9.816000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.345</v>
+        <v>3.184</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.31</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.059</v>
+        <v>1.736</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.308</v>
+        <v>0.864</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.75</v>
+        <v>0.538</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.379</v>
+        <v>2.549</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.407</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.836</v>
+        <v>0.988</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.081</v>
+        <v>1.157</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.596</v>
+        <v>1.232</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.537</v>
+        <v>5.317</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.132999999999999</v>
+        <v>0.415</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.392</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45087.52777777778</v>
+        <v>44782.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.32</v>
+        <v>1.325</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.866</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.593</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>3.105</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.25</v>
+        <v>1.965</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>0.993</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.66</v>
+        <v>4.801</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>1.745</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.527</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.1</v>
+        <v>0.881</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.76</v>
+        <v>1.204</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.89</v>
+        <v>1.419</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.362</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>1.128</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.8</v>
+        <v>1.453</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.08</v>
+        <v>1.208</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.632</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.819000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>44.25</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.91</v>
+      <c r="O6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_406.xlsx
+++ b/DATA_goal/Junction_Flooding_406.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,34 +443,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.75694444445</v>
+        <v>45087.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.425000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.488</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.776</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.765</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.191</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.707</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.218</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.112</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.928</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.255</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.151</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.871</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.122999999999999</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.592</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.125</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.067</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.004</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.226000000000001</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.728</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.858</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.276</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.652</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.378</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.869</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.432</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.957</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.713</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.76388888889</v>
+        <v>45087.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.781</v>
+        <v>7.687</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.23</v>
+        <v>5.053</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.238</v>
+        <v>1.519</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.962</v>
+        <v>16.544</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.502</v>
+        <v>12.856</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.519</v>
+        <v>6.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.867</v>
+        <v>25.796</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.163</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.226</v>
+        <v>3.86</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.289</v>
+        <v>5.522</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.659</v>
+        <v>6.592</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.95</v>
+        <v>6.799</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.282</v>
+        <v>1.936</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.752</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.996</v>
+        <v>8.363</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.071</v>
+        <v>5.424</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.249</v>
+        <v>1.463</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.553</v>
+        <v>0.822</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.276</v>
+        <v>84.25700000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.634</v>
+        <v>16.981</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.694</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.45</v>
+        <v>10.986</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.538</v>
+        <v>5.59</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6879999999999999</v>
+        <v>1.437</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.878</v>
+        <v>12.301</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.613</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.799</v>
+        <v>4.584</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.929</v>
+        <v>5.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.701</v>
+        <v>6.788</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.165</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.092000000000001</v>
+        <v>23.835</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.151</v>
+        <v>2.939</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.885</v>
+        <v>6.943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.77083333334</v>
+        <v>45087.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.3</v>
+        <v>22.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.779</v>
+        <v>16.496</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.799</v>
+        <v>1.528</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.081</v>
+        <v>49.043</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.764</v>
+        <v>39.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.955</v>
+        <v>17.77</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.533</v>
+        <v>65.62</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.745</v>
+        <v>27.341</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.446</v>
+        <v>12.057</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.805</v>
+        <v>17.817</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.169</v>
+        <v>19.671</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.421</v>
+        <v>20.697</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.359</v>
+        <v>5.675</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.128</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.398</v>
+        <v>25.073</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.277</v>
+        <v>14.977</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.836</v>
+        <v>1.093</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.368</v>
+        <v>1.009</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.816000000000001</v>
+        <v>261.637</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.184</v>
+        <v>49.345</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.041</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.736</v>
+        <v>33.059</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.864</v>
+        <v>17.308</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.538</v>
+        <v>2.75</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.549</v>
+        <v>32.379</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.988</v>
+        <v>12.836</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.157</v>
+        <v>15.081</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.232</v>
+        <v>20.596</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.733</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.317</v>
+        <v>59.537</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.415</v>
+        <v>9.132999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.77777777778</v>
+        <v>45087.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.325</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.866</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.593</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.105</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.965</v>
+        <v>7.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.993</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.801</v>
+        <v>19.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.745</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.527</v>
+        <v>2.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.881</v>
+        <v>3.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.204</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.419</v>
+        <v>3.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.362</v>
+        <v>1.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.453</v>
+        <v>4.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.208</v>
+        <v>3.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.632</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.274</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.819000000000001</v>
+        <v>44.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.16</v>
+        <v>9.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.831</v>
+        <v>6.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.444</v>
+        <v>0.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.221</v>
+        <v>8.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.951</v>
+        <v>2.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.108</v>
+        <v>3.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.268</v>
+        <v>3.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.498</v>
+        <v>18.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.453</v>
+        <v>1.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.302</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
